--- a/xlsx/temporal_differences_large.xlsx
+++ b/xlsx/temporal_differences_large.xlsx
@@ -263,8 +263,8 @@
   </sheetPr>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1:M4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -318,7 +318,7 @@
       <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -368,24 +368,24 @@
         <v>44754.6208449074</v>
       </c>
       <c r="L2" s="2" t="n">
-        <f aca="false">DATEDIF(J2,K2,"m")</f>
-        <v>68</v>
-      </c>
-      <c r="M2" s="0" t="n">
+        <f aca="false">DATEDIF(J2,K2,"d")</f>
+        <v>2098</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <f aca="false">MEDIAN(IF(ISNUMBER(L2:L70000),L2:L70000))</f>
-        <v>102</v>
+        <v>3118</v>
       </c>
       <c r="N2" s="1" t="n">
         <f aca="false">_xlfn.MINIFS(L2:L70000,L2:L70000,"&lt;&gt;")</f>
-        <v>50</v>
+        <v>1525</v>
       </c>
       <c r="O2" s="1" t="n">
         <f aca="false">_xlfn.MAXIFS(L2:L70000,L2:L70000,"&lt;&gt;")</f>
-        <v>129</v>
+        <v>3941</v>
       </c>
       <c r="P2" s="1" t="n">
         <f aca="false">STDEV(L2:L70000)</f>
-        <v>21.8730101135754</v>
+        <v>667.025792727137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,10 +425,10 @@
         <v>44718.8386689815</v>
       </c>
       <c r="L3" s="2" t="n">
-        <f aca="false">DATEDIF(J3,K3,"m")</f>
-        <v>109</v>
-      </c>
-      <c r="M3" s="0" t="s">
+        <f aca="false">DATEDIF(J3,K3,"d")</f>
+        <v>3342</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -469,12 +469,12 @@
         <v>44757.2297569445</v>
       </c>
       <c r="L4" s="2" t="n">
-        <f aca="false">DATEDIF(J4,K4,"m")</f>
-        <v>50</v>
-      </c>
-      <c r="M4" s="0" t="n">
+        <f aca="false">DATEDIF(J4,K4,"d")</f>
+        <v>1525</v>
+      </c>
+      <c r="M4" s="1" t="n">
         <f aca="false">AVERAGEIF(L2:L70000,"&lt;&gt;")</f>
-        <v>98</v>
+        <v>2995.85714285714</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,8 +514,8 @@
         <v>44757.465</v>
       </c>
       <c r="L5" s="2" t="n">
-        <f aca="false">DATEDIF(J5,K5,"m")</f>
-        <v>79</v>
+        <f aca="false">DATEDIF(J5,K5,"d")</f>
+        <v>2431</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,8 +555,8 @@
         <v>44754.4565046296</v>
       </c>
       <c r="L6" s="2" t="n">
-        <f aca="false">DATEDIF(J6,K6,"m")</f>
-        <v>120</v>
+        <f aca="false">DATEDIF(J6,K6,"d")</f>
+        <v>3660</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -596,8 +596,8 @@
         <v>44753.8655555556</v>
       </c>
       <c r="L7" s="2" t="n">
-        <f aca="false">DATEDIF(J7,K7,"m")</f>
-        <v>126</v>
+        <f aca="false">DATEDIF(J7,K7,"d")</f>
+        <v>3859</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,8 +637,8 @@
         <v>44752.3834259259</v>
       </c>
       <c r="L8" s="2" t="n">
-        <f aca="false">DATEDIF(J8,K8,"m")</f>
-        <v>106</v>
+        <f aca="false">DATEDIF(J8,K8,"d")</f>
+        <v>3238</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,8 +678,8 @@
         <v>44757.9379282407</v>
       </c>
       <c r="L9" s="2" t="n">
-        <f aca="false">DATEDIF(J9,K9,"m")</f>
-        <v>84</v>
+        <f aca="false">DATEDIF(J9,K9,"d")</f>
+        <v>2557</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -719,8 +719,8 @@
         <v>44690.6920717593</v>
       </c>
       <c r="L10" s="2" t="n">
-        <f aca="false">DATEDIF(J10,K10,"m")</f>
-        <v>107</v>
+        <f aca="false">DATEDIF(J10,K10,"d")</f>
+        <v>3271</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -760,8 +760,8 @@
         <v>44668.8664583333</v>
       </c>
       <c r="L11" s="2" t="n">
-        <f aca="false">DATEDIF(J11,K11,"m")</f>
-        <v>111</v>
+        <f aca="false">DATEDIF(J11,K11,"d")</f>
+        <v>3387</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,8 +801,8 @@
         <v>44591.6648842593</v>
       </c>
       <c r="L12" s="2" t="n">
-        <f aca="false">DATEDIF(J12,K12,"m")</f>
-        <v>102</v>
+        <f aca="false">DATEDIF(J12,K12,"d")</f>
+        <v>3118</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,8 +842,8 @@
         <v>44750.1021064815</v>
       </c>
       <c r="L13" s="2" t="n">
-        <f aca="false">DATEDIF(J13,K13,"m")</f>
-        <v>82</v>
+        <f aca="false">DATEDIF(J13,K13,"d")</f>
+        <v>2500</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -883,8 +883,8 @@
         <v>44731.1488657407</v>
       </c>
       <c r="L14" s="2" t="n">
-        <f aca="false">DATEDIF(J14,K14,"m")</f>
-        <v>99</v>
+        <f aca="false">DATEDIF(J14,K14,"d")</f>
+        <v>3015</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -924,14 +924,14 @@
         <v>44754.2790046296</v>
       </c>
       <c r="L15" s="2" t="n">
-        <f aca="false">DATEDIF(J15,K15,"m")</f>
-        <v>129</v>
+        <f aca="false">DATEDIF(J15,K15,"d")</f>
+        <v>3941</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L16" s="1" t="n">
         <f aca="false">AVERAGE(L2:L15)</f>
-        <v>98</v>
+        <v>2995.85714285714</v>
       </c>
     </row>
   </sheetData>
